--- a/Tabela #4 Raças.xlsx
+++ b/Tabela #4 Raças.xlsx
@@ -24,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nome (string)</t>
   </si>
   <si>
-    <t># me sinto igualmente idiota preenchendo isto</t>
-  </si>
-  <si>
     <t>Anão</t>
   </si>
   <si>
     <t>Elfo</t>
   </si>
   <si>
-    <t>Gnomo</t>
-  </si>
-  <si>
     <t>Halfling</t>
   </si>
   <si>
@@ -54,6 +48,75 @@
   </si>
   <si>
     <t>Qareen</t>
+  </si>
+  <si>
+    <t>Descrição (string)</t>
+  </si>
+  <si>
+    <t>• +4 Constituição, +2 Sabedoria, –2 Destreza.
+• Deslocamento 6m.
+• Visão no Escuro 18m.
+• +4 em testes de resistência contra venenos e magia.
+• Para anões, todos os tipos de machados e martelos são armas simples.
+• Classe de armadura +4 contra adversários de tamanho Grande ou maior.
+• +2 em testes de perícias para assuntos
+relacionados a pedra e metal, apenas para perícias com Inteligência ou Sabedoria como habilidade-chave.</t>
+  </si>
+  <si>
+    <t>• +4 Destreza, +2 Inteligência, –2 Constituição. 
+• Visão na Penumbra.
+• +4 em testes de Vontade contra encantamentos. Elfos também são imunes à magia sono.
+• +4 em testes de Identifi car Magia e Percepção
+• A dificuldade do teste de resistência contra magias arcanas lançadas por um elfo aumenta em CD +2.
+• Elfos sabem usar espadas curtas, espadas longas, floretes e arcos (curtos, longos e compostos). Elfos também recebem Foco em Arma para uma destas armas.</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>• +4 Destreza, +2 Constituição, –2 Carisma. 
+• Tamanho Pequeno.
+• Deslocamento 9m.
+• Visão no Escuro 18m.
+• +4 em testes de Fortitude contra doenças e venenos. Goblins também não precisam fazer testes de Fortitude por ingerir comida estragada.
+• +4 em testes de Ladinagem e Oficio (uma à escolha do jogador).</t>
+  </si>
+  <si>
+    <t>• +4 Destreza, +2 Carisma, –2 Força.
+• Tamanho Pequeno.
+• +2 em todos os testes de resistência, por sua sorte incrível.
+• +1 em jogadas de ataque com armas de arremesso e fundas. 
+• Para halflings a perícia Atletismo é baseada em Destreza, não em Força.
+• +4 em testes de Enganação. Ninguém desconfia de halflings.</t>
+  </si>
+  <si>
+    <t>• +2 em duas habilidades à escolha do jogador.
+• 2 perícias treinadas extras.
+• 2 talentos adicionais à escolha do jogador.</t>
+  </si>
+  <si>
+    <t>• +2 em duas habilidades à escolha do jogador (exceto Carisma).
+• Tipo Monstro.
+• Visão no escuro 18m.
+• 2 talentos da Tormenta adicionais. O lefou não perde pontos de Carisma por estes talentos (mas perde se adquirir outros).
+• Deformidade. Todo lefou tem algum defeito físico que, embora desagradável aos olhos, confere certa vantagem.
+• Afinidade com a Tormenta. Um lefou jamais recebe níveis negativos devido a efeitos causados pela Tormenta ou seus habitantes. Ele ainda pode receber níveis negativos de outras formas.</t>
+  </si>
+  <si>
+    <t>• +4 Força, +2 Constituição, –2 Carisma.
+• Classe de armadura +1.
+• Minotauros possuem um ataque natural de chifres (1d6, crítico x2, perfuração).
+• Faro.
+• Lógica labiríntica. Minotauros têm excelente senso de direção, e recebem +8 em testes de Sobrevivência para não se perder.
+• Medo de altura. Caso tenha que subir qualquer altura superior a 3m (ou se estiver a até 3m de uma queda desta altura), um minotauro sofre penalidade de –4 em suas jogadas e testes. Ele também não pode realizar nenhuma ação que dependa de concentração, como conjurar magias.</t>
+  </si>
+  <si>
+    <t>• +4 Carisma, +2 Inteligência, –2 Sabedoria.
+• +4 em testes de Identificar Magia. 
+• Desejos. Uma vez por dia, o qareen pode lançar uma magia sem pagar PM (ou sem esquecê-la), mas apenas se fizer isso quando alguém tiver lhe pedido.
+• Pequenos desejos. Um qareen pode lançar todos os truques (magias arcanas de nível 0).
+• Um qareen pode lançar a magia voo uma vez por dia.
+• Conforme sua descendência, um qareen tem resistência especial quanto a algum tipo de energia.</t>
   </si>
 </sst>
 </file>
@@ -97,10 +160,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,64 +494,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="141" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
